--- a/pred_ohlcv/54_21/2019-11-21 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ANKR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-2333786.5362</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2258883.027199999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5118224.2733</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7901758.376269232</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-7715100.786269232</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ANKR ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-2335946.9234</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5118224.2733</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
